--- a/学习Study/技术学习计划.xlsx
+++ b/学习Study/技术学习计划.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
   <si>
     <t>基础层：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -39,9 +39,6 @@
     <t>深度探索C++模型</t>
   </si>
   <si>
-    <t>C#高级编程</t>
-  </si>
-  <si>
     <t>C#深度</t>
   </si>
   <si>
@@ -77,10 +74,6 @@
     <t>框架层：</t>
   </si>
   <si>
-    <t>KBEngine</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>NGF</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -138,15 +131,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>EssentialC++</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>C++沉思录</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effective C++</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -296,15 +281,43 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>抄写伪代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>笔记</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>前后端代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他完整项目代码研究</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACM试题研究</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏编程精粹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄写伪代码，《算法》书代码敲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effective C++（C++深度模型）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EssentialC++（现代C++编程新思维）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C#高级编程（CLR via C#）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>KBEngine（写出分析文章）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -535,7 +548,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -574,19 +587,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -639,7 +639,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -672,37 +672,37 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="9" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="8" fillId="9" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="8" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="11" fillId="9" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="10" fillId="9" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="11" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="10" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="10" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="11" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="10" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="12" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="9" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="12" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="12" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="12" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -715,18 +715,17 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -742,7 +741,7 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -750,60 +749,54 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="8" fillId="12" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="11" fillId="12" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="8" fillId="12" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="11" fillId="12" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="12" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="12" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="10" fillId="12" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="12" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="10" fillId="12" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1086,1350 +1079,1552 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AN49"/>
+  <dimension ref="A1:AM52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="G7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA21" sqref="AA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75"/>
   <cols>
     <col min="2" max="2" width="9.06640625" style="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="17.265625" style="30" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="37" customWidth="1"/>
-    <col min="11" max="13" width="11.33203125" style="44" customWidth="1"/>
-    <col min="14" max="14" width="12.59765625" style="14" customWidth="1"/>
-    <col min="20" max="24" width="4.59765625" style="11" customWidth="1"/>
-    <col min="25" max="25" width="4.59765625" style="7" customWidth="1"/>
-    <col min="26" max="30" width="4.59765625" style="11" customWidth="1"/>
-    <col min="31" max="31" width="4.59765625" style="7" customWidth="1"/>
-    <col min="32" max="36" width="4.59765625" style="11" customWidth="1"/>
-    <col min="37" max="37" width="4.59765625" style="7" customWidth="1"/>
-    <col min="38" max="40" width="4.59765625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.265625" style="30" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="37" customWidth="1"/>
+    <col min="10" max="12" width="11.33203125" style="44" customWidth="1"/>
+    <col min="13" max="13" width="12.59765625" style="14" customWidth="1"/>
+    <col min="19" max="23" width="4.59765625" style="11" customWidth="1"/>
+    <col min="24" max="24" width="4.59765625" style="7" customWidth="1"/>
+    <col min="25" max="29" width="4.59765625" style="11" customWidth="1"/>
+    <col min="30" max="30" width="4.59765625" style="7" customWidth="1"/>
+    <col min="31" max="35" width="4.59765625" style="11" customWidth="1"/>
+    <col min="36" max="36" width="4.59765625" style="7" customWidth="1"/>
+    <col min="37" max="39" width="4.59765625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:36">
+    <row r="1" spans="1:39">
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+      <c r="AI1"/>
+      <c r="AJ1"/>
+      <c r="AK1"/>
+      <c r="AL1"/>
+      <c r="AM1"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
+    </row>
+    <row r="3" spans="1:39">
       <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:36">
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
+      <c r="AM3"/>
+    </row>
+    <row r="4" spans="1:39">
       <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:36">
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
+      <c r="AM4"/>
+    </row>
+    <row r="5" spans="1:39">
       <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:36">
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+      <c r="AJ5"/>
+      <c r="AK5"/>
+      <c r="AL5"/>
+      <c r="AM5"/>
+    </row>
+    <row r="6" spans="1:39">
       <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:36">
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+      <c r="AK6"/>
+      <c r="AL6"/>
+      <c r="AM6"/>
+    </row>
+    <row r="7" spans="1:39">
       <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:36">
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AJ7"/>
+      <c r="AK7"/>
+      <c r="AL7"/>
+      <c r="AM7"/>
+    </row>
+    <row r="8" spans="1:39">
       <c r="C8" s="2"/>
-    </row>
-    <row r="10" spans="1:36">
-      <c r="B10" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="68"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AI8"/>
+      <c r="AJ8"/>
+      <c r="AK8"/>
+      <c r="AL8"/>
+      <c r="AM8"/>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+      <c r="AJ9"/>
+      <c r="AK9"/>
+      <c r="AL9"/>
+      <c r="AM9"/>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="B10" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="78"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="F10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="31"/>
       <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="45" t="s">
+        <v>55</v>
+      </c>
       <c r="K10" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="L10" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="M10" s="45"/>
-      <c r="N10" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" ht="15" customHeight="1">
+        <v>54</v>
+      </c>
+      <c r="L10" s="45"/>
+      <c r="M10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+      <c r="AJ10"/>
+      <c r="AK10"/>
+      <c r="AL10"/>
+      <c r="AM10"/>
+    </row>
+    <row r="11" spans="1:39" ht="25.05" customHeight="1">
       <c r="A11">
         <v>23</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="76" t="s">
+      <c r="C11" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="77"/>
-      <c r="E11" s="78">
+      <c r="D11" s="66">
         <v>0.7</v>
       </c>
-      <c r="F11" s="79">
-        <f>E11*O11</f>
+      <c r="E11" s="67">
+        <f>D11*N11</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="G11" s="80">
-        <f>F11*100</f>
+      <c r="F11" s="68">
+        <f>E11*100</f>
         <v>13.999999999999998</v>
       </c>
-      <c r="H11" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="81" t="s">
-        <v>69</v>
-      </c>
-      <c r="J11" s="82" t="s">
+      <c r="G11" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="71">
+        <v>9</v>
+      </c>
+      <c r="K11" s="71">
+        <v>1</v>
+      </c>
+      <c r="L11" s="72">
+        <v>13</v>
+      </c>
+      <c r="M11" s="79">
+        <v>0.2</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="O11">
+        <f>N11*100</f>
+        <v>20</v>
+      </c>
+      <c r="Q11">
+        <v>15</v>
+      </c>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AJ11" s="11"/>
+    </row>
+    <row r="12" spans="1:39" ht="25.05" customHeight="1">
+      <c r="B12" s="84"/>
+      <c r="C12" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="66">
+        <v>0.3</v>
+      </c>
+      <c r="E12" s="67">
+        <f>D12*N12</f>
+        <v>0.06</v>
+      </c>
+      <c r="F12" s="74">
+        <f t="shared" ref="F12:F47" si="0">E12*100</f>
+        <v>6</v>
+      </c>
+      <c r="G12" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="83">
-        <v>9</v>
-      </c>
-      <c r="L11" s="83">
-        <v>1</v>
-      </c>
-      <c r="M11" s="84">
-        <v>13</v>
-      </c>
-      <c r="N11" s="69">
+      <c r="H12" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="71">
+        <v>4</v>
+      </c>
+      <c r="K12" s="71">
+        <v>2</v>
+      </c>
+      <c r="L12" s="76"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="4">
         <v>0.2</v>
       </c>
-      <c r="O11" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="P11">
-        <f>O11*100</f>
+      <c r="O12">
+        <f t="shared" ref="O12:O47" si="1">N12*100</f>
         <v>20</v>
       </c>
-      <c r="R11">
-        <v>15</v>
-      </c>
-      <c r="T11" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z11" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ11" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" ht="13.9" customHeight="1">
-      <c r="B12" s="74"/>
-      <c r="C12" s="85" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="85"/>
-      <c r="E12" s="78">
-        <v>0.3</v>
-      </c>
-      <c r="F12" s="79">
-        <f>E12*O12</f>
-        <v>0.06</v>
-      </c>
-      <c r="G12" s="86">
-        <f t="shared" ref="G12:G47" si="0">F12*100</f>
-        <v>6</v>
-      </c>
-      <c r="H12" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="J12" s="82" t="s">
-        <v>39</v>
-      </c>
-      <c r="K12" s="83">
-        <v>4</v>
-      </c>
-      <c r="L12" s="83">
-        <v>2</v>
-      </c>
-      <c r="M12" s="88"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="P12">
-        <f t="shared" ref="P12:P47" si="1">O12*100</f>
-        <v>20</v>
-      </c>
-      <c r="R12">
+      <c r="Q12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
-      <c r="B13" s="61"/>
+    <row r="13" spans="1:39">
+      <c r="B13" s="60"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
+      <c r="G13" s="34"/>
       <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="43"/>
       <c r="K13" s="43"/>
       <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="15"/>
-      <c r="R13">
+      <c r="M13" s="15"/>
+      <c r="Q13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
-      <c r="B14" s="73" t="s">
+    <row r="14" spans="1:39">
+      <c r="B14" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="D14" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="E14" s="18">
+        <f>D14*N14</f>
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="24">
+        <f>E14*100</f>
+        <v>10</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="32"/>
+      <c r="I14" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="46">
+        <v>3</v>
+      </c>
+      <c r="L14" s="47">
+        <v>27</v>
+      </c>
+      <c r="M14" s="79">
+        <v>0.25</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="O14">
+        <f>N14*100</f>
+        <v>25</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" s="85"/>
+      <c r="C15" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="46">
+        <v>3</v>
+      </c>
+      <c r="K15" s="46">
+        <v>1</v>
+      </c>
+      <c r="L15" s="59">
+        <v>11</v>
+      </c>
+      <c r="M15" s="80"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" s="85"/>
+      <c r="C16" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="32"/>
+      <c r="I16" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16" s="46">
+        <v>4</v>
+      </c>
+      <c r="L16" s="49"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="2:29">
+      <c r="B17" s="85"/>
+      <c r="C17" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="E17" s="18">
+        <f>D17*N17</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="24">
+        <f>E17*100</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="46">
         <v>8</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="17">
-        <v>0.4</v>
-      </c>
-      <c r="F14" s="18">
-        <f>E14*O14</f>
-        <v>0.1</v>
-      </c>
-      <c r="G14" s="24">
-        <f>F14*100</f>
-        <v>10</v>
-      </c>
-      <c r="H14" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" s="32"/>
-      <c r="J14" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="L14" s="46">
-        <v>3</v>
-      </c>
-      <c r="M14" s="47">
-        <v>27</v>
-      </c>
-      <c r="N14" s="69">
+      <c r="K17" s="46">
+        <v>2</v>
+      </c>
+      <c r="L17" s="49"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="2:29">
+      <c r="B18" s="85"/>
+      <c r="C18" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="32"/>
+      <c r="I18" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="4">
         <v>0.25</v>
       </c>
-      <c r="O14" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="P14">
-        <f>O14*100</f>
+      <c r="O18">
+        <f>N18*100</f>
         <v>25</v>
       </c>
-      <c r="R14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36">
-      <c r="B15" s="75"/>
-      <c r="C15" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="J15" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="K15" s="46">
-        <v>3</v>
-      </c>
-      <c r="L15" s="46">
-        <v>1</v>
-      </c>
-      <c r="M15" s="60">
-        <v>11</v>
-      </c>
-      <c r="N15" s="70"/>
-      <c r="O15" s="4"/>
-    </row>
-    <row r="16" spans="1:36">
-      <c r="B16" s="75"/>
-      <c r="C16" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" s="32"/>
-      <c r="J16" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="L16" s="46">
-        <v>4</v>
-      </c>
-      <c r="M16" s="49"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="4"/>
-    </row>
-    <row r="17" spans="2:16">
-      <c r="B17" s="75"/>
-      <c r="C17" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="F17" s="18">
-        <f>E17*O17</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="24">
-        <f>F17*100</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="J17" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" s="46">
-        <v>8</v>
-      </c>
-      <c r="L17" s="46">
-        <v>2</v>
-      </c>
-      <c r="M17" s="49"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="4"/>
-    </row>
-    <row r="18" spans="2:16">
-      <c r="B18" s="75"/>
-      <c r="C18" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="I18" s="32"/>
-      <c r="J18" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="P18">
-        <f>O18*100</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16">
-      <c r="B19" s="62"/>
+    </row>
+    <row r="19" spans="2:29">
+      <c r="B19" s="61"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
+      <c r="G19" s="34"/>
       <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="43"/>
       <c r="K19" s="43"/>
       <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="15"/>
-    </row>
-    <row r="20" spans="2:16">
-      <c r="B20" s="73" t="s">
+      <c r="M19" s="15"/>
+    </row>
+    <row r="20" spans="2:29">
+      <c r="B20" s="83" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="17">
+        <v>31</v>
+      </c>
+      <c r="D20" s="17">
         <v>0.25</v>
       </c>
-      <c r="F20" s="18">
-        <f>E20*O20</f>
+      <c r="E20" s="18">
+        <f>D20*N20</f>
         <v>0.04</v>
       </c>
-      <c r="G20" s="21">
+      <c r="F20" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H20" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="39"/>
+      <c r="G20" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="27"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="46"/>
       <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="47">
+      <c r="L20" s="47">
         <v>12</v>
       </c>
-      <c r="N20" s="69">
+      <c r="M20" s="79">
         <v>0.16</v>
       </c>
-      <c r="O20" s="4">
+      <c r="N20" s="4">
         <v>0.16</v>
       </c>
-      <c r="P20">
+      <c r="O20">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:16">
-      <c r="B21" s="75"/>
-      <c r="C21" s="3" t="s">
+    <row r="21" spans="2:29">
+      <c r="B21" s="85"/>
+      <c r="C21" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="J21" s="39" t="s">
-        <v>39</v>
+      <c r="J21" s="46">
+        <v>3</v>
       </c>
       <c r="K21" s="46">
+        <v>2</v>
+      </c>
+      <c r="L21" s="49"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="2:29">
+      <c r="B22" s="85"/>
+      <c r="C22" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="46">
         <v>3</v>
       </c>
-      <c r="L21" s="46">
-        <v>2</v>
-      </c>
-      <c r="M21" s="49"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="4"/>
-    </row>
-    <row r="22" spans="2:16">
-      <c r="B22" s="75"/>
-      <c r="C22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="I22" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="J22" s="39" t="s">
-        <v>40</v>
-      </c>
       <c r="K22" s="46">
-        <v>3</v>
-      </c>
-      <c r="L22" s="46">
         <v>1</v>
       </c>
-      <c r="M22" s="49"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="4"/>
-    </row>
-    <row r="23" spans="2:16" ht="16.149999999999999" customHeight="1">
-      <c r="B23" s="75"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="2:29" ht="16.149999999999999" customHeight="1">
+      <c r="B23" s="85"/>
       <c r="C23" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="17">
+      <c r="D23" s="17">
         <v>0.25</v>
       </c>
-      <c r="F23" s="18">
-        <f>E23*O23</f>
+      <c r="E23" s="18">
+        <f>D23*N23</f>
         <v>0.04</v>
       </c>
-      <c r="G23" s="19">
+      <c r="F23" s="19">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="G23" s="33"/>
       <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="46"/>
       <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="70"/>
-      <c r="O23" s="4">
+      <c r="L23" s="49"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="4">
         <v>0.16</v>
       </c>
-      <c r="P23">
+      <c r="O23">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="2:16">
-      <c r="B24" s="75"/>
-      <c r="C24" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="17">
+    <row r="24" spans="2:29">
+      <c r="B24" s="85"/>
+      <c r="C24" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="17">
         <v>0.25</v>
       </c>
-      <c r="F24" s="18">
-        <f>E24*O24</f>
+      <c r="E24" s="18">
+        <f>D24*N24</f>
         <v>0.04</v>
       </c>
-      <c r="G24" s="25">
+      <c r="F24" s="25">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="G24" s="35" t="s">
+        <v>44</v>
+      </c>
       <c r="H24" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="I24" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="J24" s="39" t="s">
-        <v>39</v>
+        <v>65</v>
+      </c>
+      <c r="I24" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" s="46">
+        <v>3</v>
       </c>
       <c r="K24" s="46">
         <v>3</v>
       </c>
-      <c r="L24" s="46">
-        <v>3</v>
-      </c>
-      <c r="M24" s="49"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="4">
+      <c r="L24" s="49"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="4">
         <v>0.16</v>
       </c>
-      <c r="P24">
+      <c r="O24">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="2:16">
-      <c r="B25" s="74"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+    </row>
+    <row r="25" spans="2:29">
+      <c r="B25" s="84"/>
       <c r="C25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="17">
+        <v>5</v>
+      </c>
+      <c r="D25" s="17">
         <v>0.25</v>
       </c>
-      <c r="F25" s="18">
-        <f>E25*O25</f>
+      <c r="E25" s="18">
+        <f>D25*N25</f>
         <v>0.04</v>
       </c>
-      <c r="G25" s="19">
+      <c r="F25" s="19">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="G25" s="33" t="s">
+        <v>45</v>
+      </c>
       <c r="H25" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="I25" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="J25" s="39" t="s">
-        <v>39</v>
+        <v>65</v>
+      </c>
+      <c r="I25" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" s="46">
+        <v>3</v>
       </c>
       <c r="K25" s="46">
-        <v>3</v>
-      </c>
-      <c r="L25" s="46">
         <v>4</v>
       </c>
-      <c r="M25" s="48"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="4">
+      <c r="L25" s="48"/>
+      <c r="M25" s="81"/>
+      <c r="N25" s="4">
         <v>0.16</v>
       </c>
-      <c r="P25">
+      <c r="O25">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="2:16">
-      <c r="B26" s="62"/>
+    <row r="26" spans="2:29">
+      <c r="B26" s="61"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="15"/>
       <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="43"/>
       <c r="K26" s="43"/>
       <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="15"/>
-    </row>
-    <row r="27" spans="2:16">
-      <c r="B27" s="73" t="s">
+      <c r="M26" s="15"/>
+    </row>
+    <row r="27" spans="2:29">
+      <c r="B27" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="17">
+      <c r="D27" s="17">
         <v>0.2</v>
       </c>
-      <c r="F27" s="18">
-        <f>E27*O27</f>
+      <c r="E27" s="18">
+        <f>D27*N27</f>
         <v>0.03</v>
       </c>
-      <c r="G27" s="19">
+      <c r="F27" s="19">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H27" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="I27" s="33"/>
-      <c r="J27" s="39" t="s">
-        <v>39</v>
+      <c r="G27" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="33"/>
+      <c r="I27" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27" s="46">
+        <v>3</v>
       </c>
       <c r="K27" s="46">
-        <v>3</v>
-      </c>
-      <c r="L27" s="46">
         <v>2</v>
       </c>
-      <c r="M27" s="47">
+      <c r="L27" s="47">
         <v>7</v>
       </c>
-      <c r="N27" s="69">
+      <c r="M27" s="79">
         <v>0.15</v>
       </c>
-      <c r="O27" s="4">
+      <c r="N27" s="4">
         <v>0.15</v>
       </c>
-      <c r="P27">
+      <c r="O27">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="2:16">
-      <c r="B28" s="75"/>
+    <row r="28" spans="2:29">
+      <c r="B28" s="85"/>
       <c r="C28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="17">
+        <v>11</v>
+      </c>
+      <c r="D28" s="17">
         <v>0.2</v>
       </c>
-      <c r="F28" s="18">
-        <f>E28*O28</f>
+      <c r="E28" s="18">
+        <f>D28*N28</f>
         <v>0.03</v>
       </c>
-      <c r="G28" s="19">
+      <c r="F28" s="19">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H28" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="I28" s="33"/>
-      <c r="J28" s="39" t="s">
-        <v>39</v>
+      <c r="G28" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="33"/>
+      <c r="I28" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="J28" s="46">
+        <v>4</v>
       </c>
       <c r="K28" s="46">
-        <v>4</v>
-      </c>
-      <c r="L28" s="46">
         <v>1</v>
       </c>
-      <c r="M28" s="49"/>
-      <c r="N28" s="70"/>
-      <c r="O28" s="4">
+      <c r="L28" s="49"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="4">
         <v>0.15</v>
       </c>
-      <c r="P28">
+      <c r="O28">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="2:16">
-      <c r="B29" s="75"/>
+    <row r="29" spans="2:29">
+      <c r="B29" s="85"/>
       <c r="C29" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="17">
+        <v>12</v>
+      </c>
+      <c r="D29" s="17">
         <v>0.2</v>
       </c>
-      <c r="F29" s="18">
-        <f>E29*O29</f>
+      <c r="E29" s="18">
+        <f>D29*N29</f>
         <v>0.03</v>
       </c>
-      <c r="G29" s="19">
+      <c r="F29" s="19">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="G29" s="33"/>
       <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="46"/>
       <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="4">
+      <c r="L29" s="49"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="4">
         <v>0.15</v>
       </c>
-      <c r="P29">
+      <c r="O29">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="2:16">
-      <c r="B30" s="75"/>
+    <row r="30" spans="2:29">
+      <c r="B30" s="85"/>
       <c r="C30" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="17">
+        <v>13</v>
+      </c>
+      <c r="D30" s="17">
         <v>0.2</v>
       </c>
-      <c r="F30" s="18">
-        <f>E30*O30</f>
+      <c r="E30" s="18">
+        <f>D30*N30</f>
         <v>0.03</v>
       </c>
-      <c r="G30" s="19">
+      <c r="F30" s="19">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="G30" s="33"/>
       <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="46"/>
       <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="70"/>
-      <c r="O30" s="4">
+      <c r="L30" s="49"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="4">
         <v>0.15</v>
       </c>
-      <c r="P30">
+      <c r="O30">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="2:16">
-      <c r="B31" s="74"/>
+    <row r="31" spans="2:29">
+      <c r="B31" s="84"/>
       <c r="C31" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="17">
+        <v>14</v>
+      </c>
+      <c r="D31" s="17">
         <v>0.2</v>
       </c>
-      <c r="F31" s="18">
-        <f>E31*O31</f>
+      <c r="E31" s="18">
+        <f>D31*N31</f>
         <v>0.03</v>
       </c>
-      <c r="G31" s="19">
+      <c r="F31" s="19">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="G31" s="33"/>
       <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="46"/>
       <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="4">
+      <c r="L31" s="48"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="4">
         <v>0.15</v>
       </c>
-      <c r="P31">
+      <c r="O31">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="2:16">
-      <c r="B32" s="62"/>
+    <row r="32" spans="2:29">
+      <c r="B32" s="61"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="15"/>
       <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
+      <c r="G32" s="34"/>
       <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="43"/>
       <c r="K32" s="43"/>
       <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="15"/>
-    </row>
-    <row r="33" spans="2:16">
-      <c r="B33" s="73" t="s">
-        <v>16</v>
+      <c r="M32" s="15"/>
+    </row>
+    <row r="33" spans="2:15">
+      <c r="B33" s="83" t="s">
+        <v>15</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="17">
+        <v>74</v>
+      </c>
+      <c r="D33" s="17">
         <v>0.6</v>
       </c>
-      <c r="F33" s="18">
-        <f>E33*O33</f>
+      <c r="E33" s="18">
+        <f>D33*N33</f>
         <v>0.12</v>
       </c>
-      <c r="G33" s="24">
+      <c r="F33" s="24">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H33" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="I33" s="32"/>
-      <c r="J33" s="39" t="s">
-        <v>39</v>
+      <c r="G33" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" s="32"/>
+      <c r="I33" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="J33" s="46">
+        <v>3</v>
       </c>
       <c r="K33" s="46">
-        <v>3</v>
-      </c>
-      <c r="L33" s="46">
         <v>4</v>
       </c>
-      <c r="M33" s="47">
+      <c r="L33" s="47">
         <v>21</v>
       </c>
-      <c r="N33" s="69">
+      <c r="M33" s="79">
         <v>0.2</v>
       </c>
-      <c r="O33" s="4">
+      <c r="N33" s="4">
         <v>0.2</v>
       </c>
-      <c r="P33">
+      <c r="O33">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="2:16">
-      <c r="B34" s="75"/>
+    <row r="34" spans="2:15">
+      <c r="B34" s="85"/>
       <c r="C34" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="24"/>
+        <v>29</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="32" t="s">
+        <v>47</v>
+      </c>
       <c r="H34" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="I34" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="J34" s="39" t="s">
-        <v>40</v>
+        <v>63</v>
+      </c>
+      <c r="I34" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="J34" s="46">
+        <v>8</v>
       </c>
       <c r="K34" s="46">
-        <v>8</v>
-      </c>
-      <c r="L34" s="46">
         <v>1</v>
       </c>
-      <c r="M34" s="49"/>
-      <c r="N34" s="70"/>
-      <c r="O34" s="4"/>
-    </row>
-    <row r="35" spans="2:16">
-      <c r="B35" s="75"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="80"/>
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="2:15">
+      <c r="B35" s="85"/>
       <c r="C35" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="17">
+        <v>16</v>
+      </c>
+      <c r="D35" s="17">
         <v>0.25</v>
       </c>
-      <c r="F35" s="18">
-        <f>E35*O35</f>
+      <c r="E35" s="18">
+        <f>D35*N35</f>
         <v>0.05</v>
       </c>
-      <c r="G35" s="19">
+      <c r="F35" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H35" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="I35" s="33"/>
-      <c r="J35" s="39" t="s">
-        <v>39</v>
+      <c r="G35" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H35" s="33"/>
+      <c r="I35" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="J35" s="46">
+        <v>5</v>
       </c>
       <c r="K35" s="46">
-        <v>5</v>
-      </c>
-      <c r="L35" s="46">
         <v>2</v>
       </c>
-      <c r="M35" s="49"/>
-      <c r="N35" s="70"/>
-      <c r="O35" s="4">
+      <c r="L35" s="49"/>
+      <c r="M35" s="80"/>
+      <c r="N35" s="4">
         <v>0.2</v>
       </c>
-      <c r="P35">
+      <c r="O35">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="2:16">
-      <c r="B36" s="74"/>
+    <row r="36" spans="2:15">
+      <c r="B36" s="84"/>
       <c r="C36" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="17">
+        <v>17</v>
+      </c>
+      <c r="D36" s="17">
         <v>0.15</v>
       </c>
-      <c r="F36" s="18">
-        <f>E36*O36</f>
+      <c r="E36" s="18">
+        <f>D36*N36</f>
         <v>0.03</v>
       </c>
-      <c r="G36" s="21">
+      <c r="F36" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="G36" s="27" t="s">
+        <v>50</v>
+      </c>
       <c r="H36" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="I36" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="J36" s="39" t="s">
-        <v>40</v>
+        <v>63</v>
+      </c>
+      <c r="I36" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="J36" s="46">
+        <v>5</v>
       </c>
       <c r="K36" s="46">
-        <v>5</v>
-      </c>
-      <c r="L36" s="46">
         <v>3</v>
       </c>
-      <c r="M36" s="48"/>
-      <c r="N36" s="71"/>
-      <c r="O36" s="4">
+      <c r="L36" s="48"/>
+      <c r="M36" s="81"/>
+      <c r="N36" s="4">
         <v>0.2</v>
       </c>
-      <c r="P36">
+      <c r="O36">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="2:16">
-      <c r="B37" s="62"/>
+    <row r="37" spans="2:15">
+      <c r="B37" s="61"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="15"/>
       <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
+      <c r="G37" s="34"/>
       <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="43"/>
       <c r="K37" s="43"/>
       <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="15"/>
-    </row>
-    <row r="38" spans="2:16">
-      <c r="B38" s="73" t="s">
-        <v>20</v>
+      <c r="M37" s="15"/>
+    </row>
+    <row r="38" spans="2:15">
+      <c r="B38" s="83" t="s">
+        <v>18</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="17">
+        <v>19</v>
+      </c>
+      <c r="D38" s="17">
         <v>0.4</v>
       </c>
-      <c r="F38" s="18">
-        <f>E38*O38</f>
+      <c r="E38" s="18">
+        <f>D38*N38</f>
         <v>0.06</v>
       </c>
-      <c r="G38" s="25">
+      <c r="F38" s="25">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H38" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="I38" s="35"/>
-      <c r="J38" s="39" t="s">
-        <v>39</v>
+      <c r="G38" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H38" s="35"/>
+      <c r="I38" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="J38" s="46">
+        <v>5</v>
       </c>
       <c r="K38" s="46">
-        <v>5</v>
-      </c>
-      <c r="L38" s="46">
         <v>1</v>
       </c>
-      <c r="M38" s="47">
+      <c r="L38" s="47">
         <v>19</v>
       </c>
-      <c r="N38" s="69">
+      <c r="M38" s="79">
         <v>0.15</v>
       </c>
-      <c r="O38" s="4">
+      <c r="N38" s="4">
         <v>0.15</v>
       </c>
-      <c r="P38">
+      <c r="O38">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="2:16">
-      <c r="B39" s="75"/>
+    <row r="39" spans="2:15">
+      <c r="B39" s="85"/>
       <c r="C39" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="17">
+        <v>20</v>
+      </c>
+      <c r="D39" s="17">
         <v>0.4</v>
       </c>
-      <c r="F39" s="18">
-        <f>E39*O39</f>
+      <c r="E39" s="18">
+        <f>D39*N39</f>
         <v>0.06</v>
       </c>
-      <c r="G39" s="27">
+      <c r="F39" s="27">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H39" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I39" s="27"/>
-      <c r="J39" s="39" t="s">
-        <v>40</v>
+      <c r="G39" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" s="27"/>
+      <c r="I39" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="J39" s="46">
+        <v>5</v>
       </c>
       <c r="K39" s="46">
-        <v>5</v>
-      </c>
-      <c r="L39" s="46">
         <v>2</v>
       </c>
-      <c r="M39" s="49"/>
-      <c r="N39" s="70"/>
-      <c r="O39" s="4">
+      <c r="L39" s="49"/>
+      <c r="M39" s="80"/>
+      <c r="N39" s="4">
         <v>0.15</v>
       </c>
-      <c r="P39">
+      <c r="O39">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="2:16">
-      <c r="B40" s="75"/>
+    <row r="40" spans="2:15">
+      <c r="B40" s="85"/>
       <c r="C40" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="17">
+        <v>8</v>
+      </c>
+      <c r="D40" s="17">
         <v>0.2</v>
       </c>
-      <c r="F40" s="18" t="e">
-        <f>E40*#REF!</f>
+      <c r="E40" s="18" t="e">
+        <f>D40*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G40" s="21" t="e">
-        <f>F40*100</f>
+      <c r="F40" s="21" t="e">
+        <f>E40*100</f>
         <v>#REF!</v>
       </c>
-      <c r="H40" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="I40" s="27"/>
-      <c r="J40" s="39" t="s">
+      <c r="G40" s="27" t="s">
         <v>39</v>
       </c>
+      <c r="H40" s="27"/>
+      <c r="I40" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="J40" s="46">
+        <v>2</v>
+      </c>
       <c r="K40" s="46">
+        <v>3</v>
+      </c>
+      <c r="L40" s="49"/>
+      <c r="M40" s="80"/>
+      <c r="N40" s="4"/>
+    </row>
+    <row r="41" spans="2:15">
+      <c r="B41" s="85"/>
+      <c r="C41" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="17"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="J41" s="46">
         <v>2</v>
       </c>
-      <c r="L40" s="46">
-        <v>3</v>
-      </c>
-      <c r="M40" s="49"/>
-      <c r="N40" s="70"/>
-      <c r="O40" s="4"/>
-    </row>
-    <row r="41" spans="2:16">
-      <c r="B41" s="75"/>
-      <c r="C41" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="39" t="s">
-        <v>46</v>
-      </c>
       <c r="K41" s="46">
-        <v>2</v>
-      </c>
-      <c r="L41" s="46">
         <v>5</v>
       </c>
-      <c r="M41" s="49"/>
-      <c r="N41" s="70"/>
-      <c r="O41" s="4"/>
-    </row>
-    <row r="42" spans="2:16">
-      <c r="B42" s="75"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="80"/>
+      <c r="N41" s="4"/>
+    </row>
+    <row r="42" spans="2:15">
+      <c r="B42" s="85"/>
       <c r="C42" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="21"/>
+        <v>60</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="27"/>
       <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="46">
+      <c r="I42" s="39"/>
+      <c r="J42" s="46">
         <v>1</v>
       </c>
-      <c r="L42" s="46"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="70"/>
-      <c r="O42" s="4"/>
-    </row>
-    <row r="43" spans="2:16">
-      <c r="B43" s="75"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="80"/>
+      <c r="N42" s="4"/>
+    </row>
+    <row r="43" spans="2:15">
+      <c r="B43" s="85"/>
       <c r="C43" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="17">
+        <v>30</v>
+      </c>
+      <c r="D43" s="17">
         <v>0.1</v>
       </c>
-      <c r="F43" s="18">
-        <f>E43*O43</f>
+      <c r="E43" s="18">
+        <f>D43*N43</f>
         <v>0</v>
       </c>
-      <c r="G43" s="19">
-        <f>F43*100</f>
+      <c r="F43" s="19">
+        <f>E43*100</f>
         <v>0</v>
       </c>
-      <c r="H43" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="I43" s="33"/>
-      <c r="J43" s="39" t="s">
-        <v>39</v>
+      <c r="G43" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43" s="33"/>
+      <c r="I43" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="J43" s="46">
+        <v>5</v>
       </c>
       <c r="K43" s="46">
-        <v>5</v>
-      </c>
-      <c r="L43" s="46">
         <v>4</v>
       </c>
-      <c r="M43" s="49"/>
-      <c r="N43" s="70"/>
-      <c r="O43" s="4"/>
-    </row>
-    <row r="44" spans="2:16">
-      <c r="B44" s="74"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="80"/>
+      <c r="N43" s="4"/>
+    </row>
+    <row r="44" spans="2:15">
+      <c r="B44" s="84"/>
       <c r="C44" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="17">
+        <v>21</v>
+      </c>
+      <c r="D44" s="17">
         <v>0.2</v>
       </c>
-      <c r="F44" s="18">
-        <f>E44*O44</f>
+      <c r="E44" s="18">
+        <f>D44*N44</f>
         <v>0.03</v>
       </c>
-      <c r="G44" s="19">
+      <c r="F44" s="19">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="G44" s="33"/>
       <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="46"/>
       <c r="K44" s="46"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="48"/>
-      <c r="N44" s="71"/>
-      <c r="O44" s="4">
+      <c r="L44" s="48"/>
+      <c r="M44" s="81"/>
+      <c r="N44" s="4">
         <v>0.15</v>
       </c>
-      <c r="P44">
+      <c r="O44">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="2:16">
-      <c r="B45" s="63"/>
+    <row r="45" spans="2:15">
+      <c r="B45" s="62"/>
       <c r="C45" s="9"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
+      <c r="E45" s="15"/>
       <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
+      <c r="G45" s="34"/>
       <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="43"/>
       <c r="K45" s="43"/>
       <c r="L45" s="43"/>
-      <c r="M45" s="43"/>
-      <c r="N45" s="16">
-        <f>N11+N20+N14+N27+N33+N38</f>
+      <c r="M45" s="16">
+        <f>M11+M20+M14+M27+M33+M38</f>
         <v>1.1099999999999999</v>
       </c>
     </row>
-    <row r="46" spans="2:16">
-      <c r="B46" s="72" t="s">
-        <v>26</v>
+    <row r="46" spans="2:15">
+      <c r="B46" s="82" t="s">
+        <v>24</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="17">
+        <v>25</v>
+      </c>
+      <c r="D46" s="17">
         <v>0.5</v>
       </c>
-      <c r="F46" s="18">
-        <f>E46*O46</f>
+      <c r="E46" s="18">
+        <f>D46*N46</f>
         <v>0.05</v>
       </c>
-      <c r="G46" s="19">
+      <c r="F46" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="G46" s="33"/>
       <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="41"/>
-      <c r="K46" s="46">
+      <c r="I46" s="41"/>
+      <c r="J46" s="46">
         <v>2</v>
       </c>
-      <c r="L46" s="46"/>
-      <c r="M46" s="47"/>
-      <c r="N46" s="69">
+      <c r="K46" s="46"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="79">
         <v>0.1</v>
       </c>
-      <c r="O46" s="4">
+      <c r="N46" s="4">
         <v>0.1</v>
       </c>
-      <c r="P46">
+      <c r="O46">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="2:16">
-      <c r="B47" s="73"/>
+    <row r="47" spans="2:15">
+      <c r="B47" s="83"/>
       <c r="C47" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47" s="51"/>
-      <c r="E47" s="52">
+        <v>26</v>
+      </c>
+      <c r="D47" s="51">
         <v>0.5</v>
       </c>
-      <c r="F47" s="18">
-        <f>E47*O47</f>
+      <c r="E47" s="18">
+        <f>D47*N47</f>
         <v>0.05</v>
       </c>
-      <c r="G47" s="22">
+      <c r="F47" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="G47" s="36"/>
       <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="47"/>
       <c r="K47" s="47"/>
-      <c r="L47" s="47"/>
-      <c r="M47" s="49"/>
-      <c r="N47" s="70"/>
-      <c r="O47" s="4">
+      <c r="L47" s="49"/>
+      <c r="M47" s="80"/>
+      <c r="N47" s="4">
         <v>0.1</v>
       </c>
-      <c r="P47">
+      <c r="O47">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="2:16">
-      <c r="B48" s="64"/>
-      <c r="C48" s="65" t="s">
-        <v>62</v>
+    <row r="48" spans="2:15">
+      <c r="B48" s="63"/>
+      <c r="C48" s="64" t="s">
+        <v>58</v>
       </c>
       <c r="D48" s="51"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="19"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="33" t="s">
+        <v>59</v>
+      </c>
       <c r="H48" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="I48" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="J48" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="K48" s="47">
+        <v>66</v>
+      </c>
+      <c r="I48" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="J48" s="47">
         <v>5</v>
       </c>
+      <c r="K48" s="47"/>
       <c r="L48" s="47"/>
-      <c r="M48" s="47"/>
-      <c r="N48" s="28"/>
-    </row>
-    <row r="49" spans="2:14">
-      <c r="B49" s="53"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
+      <c r="M48" s="28"/>
+    </row>
+    <row r="49" spans="2:13">
+      <c r="B49" s="52"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
       <c r="G49" s="54"/>
-      <c r="H49" s="55"/>
+      <c r="H49" s="54"/>
       <c r="I49" s="55"/>
-      <c r="J49" s="56"/>
-      <c r="K49" s="59">
-        <f>SUM(K11:K48)</f>
+      <c r="J49" s="58">
+        <f>SUM(J11:J48)</f>
         <v>91</v>
       </c>
-      <c r="L49" s="57"/>
+      <c r="K49" s="56"/>
+      <c r="L49" s="56"/>
       <c r="M49" s="57"/>
-      <c r="N49" s="58"/>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="C50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13">
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13">
+      <c r="C52" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="N38:N44"/>
+  <mergeCells count="15">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="M38:M44"/>
     <mergeCell ref="B46:B47"/>
-    <mergeCell ref="N46:N47"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="N20:N25"/>
-    <mergeCell ref="N14:N18"/>
-    <mergeCell ref="N27:N31"/>
-    <mergeCell ref="N33:N36"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M20:M25"/>
+    <mergeCell ref="M14:M18"/>
+    <mergeCell ref="M27:M31"/>
+    <mergeCell ref="M33:M36"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B20:B25"/>
     <mergeCell ref="B14:B18"/>

--- a/学习Study/技术学习计划.xlsx
+++ b/学习Study/技术学习计划.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>基础层：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -320,6 +320,88 @@
     <t>KBEngine（写出分析文章）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>工作经历描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shader入门</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他渲染（卡通，阴影）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unity手册</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>STL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>图形</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>底层</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步技术</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Unity</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>性能</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>看过的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大型多人在线游戏开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络游戏核心技术与实战</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络游戏Server编程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -328,7 +410,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,8 +555,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -544,6 +635,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,7 +736,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -680,7 +777,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="8" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="8" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="10" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -770,6 +866,18 @@
     <xf numFmtId="176" fontId="10" fillId="12" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1079,10 +1187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM52"/>
+  <dimension ref="A1:AM65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA21" sqref="AA21"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75"/>
@@ -1090,9 +1198,9 @@
     <col min="2" max="2" width="9.06640625" style="1"/>
     <col min="3" max="3" width="18.19921875" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.265625" style="30" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="37" customWidth="1"/>
-    <col min="10" max="12" width="11.33203125" style="44" customWidth="1"/>
+    <col min="7" max="8" width="17.265625" style="29" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="36" customWidth="1"/>
+    <col min="10" max="12" width="11.33203125" style="43" customWidth="1"/>
     <col min="13" max="13" width="12.59765625" style="14" customWidth="1"/>
     <col min="19" max="23" width="4.59765625" style="11" customWidth="1"/>
     <col min="24" max="24" width="4.59765625" style="7" customWidth="1"/>
@@ -1317,25 +1425,25 @@
       <c r="AM9"/>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="78"/>
+      <c r="C10" s="85"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="45" t="s">
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="45" t="s">
+      <c r="K10" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="45"/>
+      <c r="L10" s="44"/>
       <c r="M10" s="13" t="s">
         <v>23</v>
       </c>
@@ -1365,42 +1473,42 @@
       <c r="A11">
         <v>23</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="66">
+      <c r="D11" s="65">
         <v>0.7</v>
       </c>
-      <c r="E11" s="67">
+      <c r="E11" s="66">
         <f>D11*N11</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="F11" s="68">
+      <c r="F11" s="67">
         <f>E11*100</f>
         <v>13.999999999999998</v>
       </c>
-      <c r="G11" s="69" t="s">
+      <c r="G11" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="69" t="s">
+      <c r="H11" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="70" t="s">
+      <c r="I11" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="71">
+      <c r="J11" s="70">
         <v>9</v>
       </c>
-      <c r="K11" s="71">
+      <c r="K11" s="70">
         <v>1</v>
       </c>
-      <c r="L11" s="72">
+      <c r="L11" s="71">
         <v>13</v>
       </c>
-      <c r="M11" s="79">
+      <c r="M11" s="86">
         <v>0.2</v>
       </c>
       <c r="N11" s="4">
@@ -1427,38 +1535,38 @@
       <c r="AJ11" s="11"/>
     </row>
     <row r="12" spans="1:39" ht="25.05" customHeight="1">
-      <c r="B12" s="84"/>
-      <c r="C12" s="73" t="s">
+      <c r="B12" s="91"/>
+      <c r="C12" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="66">
+      <c r="D12" s="65">
         <v>0.3</v>
       </c>
-      <c r="E12" s="67">
+      <c r="E12" s="66">
         <f>D12*N12</f>
         <v>0.06</v>
       </c>
-      <c r="F12" s="74">
+      <c r="F12" s="73">
         <f t="shared" ref="F12:F47" si="0">E12*100</f>
         <v>6</v>
       </c>
-      <c r="G12" s="75" t="s">
+      <c r="G12" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="75" t="s">
+      <c r="H12" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="70" t="s">
+      <c r="I12" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="71">
+      <c r="J12" s="70">
         <v>4</v>
       </c>
-      <c r="K12" s="71">
+      <c r="K12" s="70">
         <v>2</v>
       </c>
-      <c r="L12" s="76"/>
-      <c r="M12" s="81"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="88"/>
       <c r="N12" s="4">
         <v>0.2</v>
       </c>
@@ -1471,27 +1579,27 @@
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" s="60"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="5"/>
       <c r="D13" s="10"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
       <c r="M13" s="15"/>
       <c r="Q13">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="17">
@@ -1505,23 +1613,23 @@
         <f>E14*100</f>
         <v>10</v>
       </c>
-      <c r="G14" s="32" t="s">
+      <c r="G14" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="39" t="s">
+      <c r="H14" s="31"/>
+      <c r="I14" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="46" t="s">
+      <c r="J14" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="K14" s="46">
+      <c r="K14" s="45">
         <v>3</v>
       </c>
-      <c r="L14" s="47">
+      <c r="L14" s="46">
         <v>27</v>
       </c>
-      <c r="M14" s="79">
+      <c r="M14" s="86">
         <v>0.25</v>
       </c>
       <c r="N14" s="4">
@@ -1536,61 +1644,62 @@
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="85"/>
+      <c r="A15" s="81"/>
+      <c r="B15" s="92"/>
       <c r="C15" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="18"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="H15" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="39" t="s">
+      <c r="I15" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="46">
+      <c r="J15" s="45">
         <v>3</v>
       </c>
-      <c r="K15" s="46">
+      <c r="K15" s="45">
         <v>1</v>
       </c>
-      <c r="L15" s="59">
+      <c r="L15" s="58">
         <v>11</v>
       </c>
-      <c r="M15" s="80"/>
+      <c r="M15" s="87"/>
       <c r="N15" s="4"/>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="85"/>
-      <c r="C16" s="29" t="s">
+      <c r="B16" s="92"/>
+      <c r="C16" s="28" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="18"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="32" t="s">
+      <c r="G16" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="32"/>
-      <c r="I16" s="39" t="s">
+      <c r="H16" s="31"/>
+      <c r="I16" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="46" t="s">
+      <c r="J16" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="K16" s="46">
+      <c r="K16" s="45">
         <v>4</v>
       </c>
-      <c r="L16" s="49"/>
-      <c r="M16" s="80"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="87"/>
       <c r="N16" s="4"/>
     </row>
     <row r="17" spans="2:29">
-      <c r="B17" s="85"/>
+      <c r="B17" s="92"/>
       <c r="C17" s="23" t="s">
         <v>28</v>
       </c>
@@ -1605,44 +1714,44 @@
         <f>E17*100</f>
         <v>0</v>
       </c>
-      <c r="G17" s="32" t="s">
+      <c r="G17" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="32" t="s">
+      <c r="H17" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="39" t="s">
+      <c r="I17" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="J17" s="46">
+      <c r="J17" s="45">
         <v>8</v>
       </c>
-      <c r="K17" s="46">
+      <c r="K17" s="45">
         <v>2</v>
       </c>
-      <c r="L17" s="49"/>
-      <c r="M17" s="80"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="87"/>
       <c r="N17" s="4"/>
     </row>
     <row r="18" spans="2:29">
-      <c r="B18" s="85"/>
-      <c r="C18" s="29" t="s">
+      <c r="B18" s="92"/>
+      <c r="C18" s="28" t="s">
         <v>56</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="18"/>
       <c r="F18" s="24"/>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="39" t="s">
+      <c r="H18" s="31"/>
+      <c r="I18" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="80"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="87"/>
       <c r="N18" s="4">
         <v>0.25</v>
       </c>
@@ -1652,21 +1761,21 @@
       </c>
     </row>
     <row r="19" spans="2:29">
-      <c r="B19" s="61"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="5"/>
       <c r="D19" s="10"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
       <c r="M19" s="15"/>
     </row>
     <row r="20" spans="2:29">
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="90" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -1683,17 +1792,17 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="H20" s="27"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="47">
+      <c r="H20" s="26"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="46">
         <v>12</v>
       </c>
-      <c r="M20" s="79">
+      <c r="M20" s="86">
         <v>0.16</v>
       </c>
       <c r="N20" s="4">
@@ -1705,61 +1814,61 @@
       </c>
     </row>
     <row r="21" spans="2:29">
-      <c r="B21" s="85"/>
+      <c r="B21" s="92"/>
       <c r="C21" s="20" t="s">
         <v>71</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="18"/>
       <c r="F21" s="21"/>
-      <c r="G21" s="27" t="s">
+      <c r="G21" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="H21" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="I21" s="39" t="s">
+      <c r="I21" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="J21" s="46">
+      <c r="J21" s="45">
         <v>3</v>
       </c>
-      <c r="K21" s="46">
+      <c r="K21" s="45">
         <v>2</v>
       </c>
-      <c r="L21" s="49"/>
-      <c r="M21" s="80"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="87"/>
       <c r="N21" s="4"/>
     </row>
     <row r="22" spans="2:29">
-      <c r="B22" s="85"/>
+      <c r="B22" s="92"/>
       <c r="C22" s="20" t="s">
         <v>72</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="18"/>
       <c r="F22" s="21"/>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="H22" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="I22" s="39" t="s">
+      <c r="I22" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="J22" s="46">
+      <c r="J22" s="45">
         <v>3</v>
       </c>
-      <c r="K22" s="46">
+      <c r="K22" s="45">
         <v>1</v>
       </c>
-      <c r="L22" s="49"/>
-      <c r="M22" s="80"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="87"/>
       <c r="N22" s="4"/>
     </row>
     <row r="23" spans="2:29" ht="16.149999999999999" customHeight="1">
-      <c r="B23" s="85"/>
+      <c r="B23" s="92"/>
       <c r="C23" s="6" t="s">
         <v>4</v>
       </c>
@@ -1774,13 +1883,13 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="80"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="87"/>
       <c r="N23" s="4">
         <v>0.16</v>
       </c>
@@ -1790,38 +1899,38 @@
       </c>
     </row>
     <row r="24" spans="2:29">
-      <c r="B24" s="85"/>
-      <c r="C24" s="20" t="s">
+      <c r="B24" s="92"/>
+      <c r="C24" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="65">
         <v>0.25</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="66">
         <f>D24*N24</f>
         <v>0.04</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="67">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G24" s="35" t="s">
+      <c r="G24" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="H24" s="35" t="s">
+      <c r="H24" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="I24" s="39" t="s">
+      <c r="I24" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="J24" s="46">
+      <c r="J24" s="70">
         <v>3</v>
       </c>
-      <c r="K24" s="46">
+      <c r="K24" s="70">
         <v>3</v>
       </c>
-      <c r="L24" s="49"/>
-      <c r="M24" s="80"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="87"/>
       <c r="N24" s="4">
         <v>0.16</v>
       </c>
@@ -1839,7 +1948,7 @@
       <c r="AC24" s="8"/>
     </row>
     <row r="25" spans="2:29">
-      <c r="B25" s="84"/>
+      <c r="B25" s="91"/>
       <c r="C25" s="3" t="s">
         <v>5</v>
       </c>
@@ -1854,23 +1963,23 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G25" s="33" t="s">
+      <c r="G25" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="H25" s="33" t="s">
+      <c r="H25" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="I25" s="39" t="s">
+      <c r="I25" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="J25" s="46">
+      <c r="J25" s="45">
         <v>3</v>
       </c>
-      <c r="K25" s="46">
+      <c r="K25" s="45">
         <v>4</v>
       </c>
-      <c r="L25" s="48"/>
-      <c r="M25" s="81"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="88"/>
       <c r="N25" s="4">
         <v>0.16</v>
       </c>
@@ -1880,21 +1989,21 @@
       </c>
     </row>
     <row r="26" spans="2:29">
-      <c r="B26" s="61"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="5"/>
       <c r="D26" s="10"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
       <c r="M26" s="15"/>
     </row>
     <row r="27" spans="2:29">
-      <c r="B27" s="83" t="s">
+      <c r="B27" s="90" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -1911,23 +2020,23 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G27" s="33" t="s">
+      <c r="G27" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="H27" s="33"/>
-      <c r="I27" s="39" t="s">
+      <c r="H27" s="32"/>
+      <c r="I27" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="J27" s="46">
+      <c r="J27" s="45">
         <v>3</v>
       </c>
-      <c r="K27" s="46">
+      <c r="K27" s="45">
         <v>2</v>
       </c>
-      <c r="L27" s="47">
+      <c r="L27" s="46">
         <v>7</v>
       </c>
-      <c r="M27" s="79">
+      <c r="M27" s="86">
         <v>0.15</v>
       </c>
       <c r="N27" s="4">
@@ -1939,7 +2048,7 @@
       </c>
     </row>
     <row r="28" spans="2:29">
-      <c r="B28" s="85"/>
+      <c r="B28" s="92"/>
       <c r="C28" s="3" t="s">
         <v>11</v>
       </c>
@@ -1954,21 +2063,21 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G28" s="33" t="s">
+      <c r="G28" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="H28" s="33"/>
-      <c r="I28" s="39" t="s">
+      <c r="H28" s="32"/>
+      <c r="I28" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="J28" s="46">
+      <c r="J28" s="45">
         <v>4</v>
       </c>
-      <c r="K28" s="46">
+      <c r="K28" s="45">
         <v>1</v>
       </c>
-      <c r="L28" s="49"/>
-      <c r="M28" s="80"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="87"/>
       <c r="N28" s="4">
         <v>0.15</v>
       </c>
@@ -1978,7 +2087,7 @@
       </c>
     </row>
     <row r="29" spans="2:29">
-      <c r="B29" s="85"/>
+      <c r="B29" s="92"/>
       <c r="C29" s="6" t="s">
         <v>12</v>
       </c>
@@ -1993,13 +2102,13 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="80"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="87"/>
       <c r="N29" s="4">
         <v>0.15</v>
       </c>
@@ -2009,7 +2118,7 @@
       </c>
     </row>
     <row r="30" spans="2:29">
-      <c r="B30" s="85"/>
+      <c r="B30" s="92"/>
       <c r="C30" s="6" t="s">
         <v>13</v>
       </c>
@@ -2024,13 +2133,13 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="80"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="87"/>
       <c r="N30" s="4">
         <v>0.15</v>
       </c>
@@ -2040,7 +2149,7 @@
       </c>
     </row>
     <row r="31" spans="2:29">
-      <c r="B31" s="84"/>
+      <c r="B31" s="91"/>
       <c r="C31" s="6" t="s">
         <v>14</v>
       </c>
@@ -2055,13 +2164,13 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="81"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="88"/>
       <c r="N31" s="4">
         <v>0.15</v>
       </c>
@@ -2071,21 +2180,21 @@
       </c>
     </row>
     <row r="32" spans="2:29">
-      <c r="B32" s="61"/>
+      <c r="B32" s="60"/>
       <c r="C32" s="5"/>
       <c r="D32" s="10"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
       <c r="M32" s="15"/>
     </row>
-    <row r="33" spans="2:15">
-      <c r="B33" s="83" t="s">
+    <row r="33" spans="1:15">
+      <c r="B33" s="90" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="20" t="s">
@@ -2102,23 +2211,23 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G33" s="32" t="s">
+      <c r="G33" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="H33" s="32"/>
-      <c r="I33" s="39" t="s">
+      <c r="H33" s="31"/>
+      <c r="I33" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="J33" s="46">
+      <c r="J33" s="45">
         <v>3</v>
       </c>
-      <c r="K33" s="46">
+      <c r="K33" s="45">
         <v>4</v>
       </c>
-      <c r="L33" s="47">
+      <c r="L33" s="46">
         <v>21</v>
       </c>
-      <c r="M33" s="79">
+      <c r="M33" s="86">
         <v>0.2</v>
       </c>
       <c r="N33" s="4">
@@ -2129,35 +2238,36 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="2:15">
-      <c r="B34" s="85"/>
+    <row r="34" spans="1:15">
+      <c r="A34" s="81"/>
+      <c r="B34" s="92"/>
       <c r="C34" s="23" t="s">
         <v>29</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="18"/>
       <c r="F34" s="24"/>
-      <c r="G34" s="32" t="s">
+      <c r="G34" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="H34" s="32" t="s">
+      <c r="H34" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="I34" s="39" t="s">
+      <c r="I34" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="J34" s="46">
+      <c r="J34" s="45">
         <v>8</v>
       </c>
-      <c r="K34" s="46">
+      <c r="K34" s="45">
         <v>1</v>
       </c>
-      <c r="L34" s="49"/>
-      <c r="M34" s="80"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="87"/>
       <c r="N34" s="4"/>
     </row>
-    <row r="35" spans="2:15">
-      <c r="B35" s="85"/>
+    <row r="35" spans="1:15">
+      <c r="B35" s="92"/>
       <c r="C35" s="3" t="s">
         <v>16</v>
       </c>
@@ -2172,21 +2282,21 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G35" s="33" t="s">
+      <c r="G35" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="H35" s="33"/>
-      <c r="I35" s="39" t="s">
+      <c r="H35" s="32"/>
+      <c r="I35" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="J35" s="46">
+      <c r="J35" s="45">
         <v>5</v>
       </c>
-      <c r="K35" s="46">
+      <c r="K35" s="45">
         <v>2</v>
       </c>
-      <c r="L35" s="49"/>
-      <c r="M35" s="80"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="87"/>
       <c r="N35" s="4">
         <v>0.2</v>
       </c>
@@ -2195,9 +2305,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="2:15">
-      <c r="B36" s="84"/>
-      <c r="C36" s="3" t="s">
+    <row r="36" spans="1:15">
+      <c r="B36" s="91"/>
+      <c r="C36" s="78" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="17">
@@ -2211,23 +2321,23 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G36" s="27" t="s">
+      <c r="G36" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="H36" s="27" t="s">
+      <c r="H36" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="I36" s="39" t="s">
+      <c r="I36" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="J36" s="46">
+      <c r="J36" s="45">
         <v>5</v>
       </c>
-      <c r="K36" s="46">
+      <c r="K36" s="45">
         <v>3</v>
       </c>
-      <c r="L36" s="48"/>
-      <c r="M36" s="81"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="88"/>
       <c r="N36" s="4">
         <v>0.2</v>
       </c>
@@ -2236,25 +2346,25 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="2:15">
-      <c r="B37" s="61"/>
+    <row r="37" spans="1:15">
+      <c r="B37" s="60"/>
       <c r="C37" s="5"/>
       <c r="D37" s="10"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
       <c r="M37" s="15"/>
     </row>
-    <row r="38" spans="2:15">
-      <c r="B38" s="83" t="s">
+    <row r="38" spans="1:15">
+      <c r="B38" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="76" t="s">
         <v>19</v>
       </c>
       <c r="D38" s="17">
@@ -2268,23 +2378,23 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G38" s="35" t="s">
+      <c r="G38" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="H38" s="35"/>
-      <c r="I38" s="39" t="s">
+      <c r="H38" s="34"/>
+      <c r="I38" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="J38" s="46">
+      <c r="J38" s="45">
         <v>5</v>
       </c>
-      <c r="K38" s="46">
+      <c r="K38" s="45">
         <v>1</v>
       </c>
-      <c r="L38" s="47">
+      <c r="L38" s="46">
         <v>19</v>
       </c>
-      <c r="M38" s="79">
+      <c r="M38" s="86">
         <v>0.15</v>
       </c>
       <c r="N38" s="4">
@@ -2295,9 +2405,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="2:15">
-      <c r="B39" s="85"/>
-      <c r="C39" s="26" t="s">
+    <row r="39" spans="1:15">
+      <c r="B39" s="92"/>
+      <c r="C39" s="79" t="s">
         <v>20</v>
       </c>
       <c r="D39" s="17">
@@ -2307,25 +2417,25 @@
         <f>D39*N39</f>
         <v>0.06</v>
       </c>
-      <c r="F39" s="27">
+      <c r="F39" s="26">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G39" s="27" t="s">
+      <c r="G39" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="H39" s="27"/>
-      <c r="I39" s="39" t="s">
+      <c r="H39" s="26"/>
+      <c r="I39" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="J39" s="46">
+      <c r="J39" s="45">
         <v>5</v>
       </c>
-      <c r="K39" s="46">
+      <c r="K39" s="45">
         <v>2</v>
       </c>
-      <c r="L39" s="49"/>
-      <c r="M39" s="80"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="87"/>
       <c r="N39" s="4">
         <v>0.15</v>
       </c>
@@ -2334,8 +2444,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="2:15">
-      <c r="B40" s="85"/>
+    <row r="40" spans="1:15">
+      <c r="B40" s="92"/>
       <c r="C40" s="6" t="s">
         <v>8</v>
       </c>
@@ -2350,68 +2460,68 @@
         <f>E40*100</f>
         <v>#REF!</v>
       </c>
-      <c r="G40" s="27" t="s">
+      <c r="G40" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="H40" s="27"/>
-      <c r="I40" s="39" t="s">
+      <c r="H40" s="26"/>
+      <c r="I40" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="46">
+      <c r="J40" s="45">
         <v>2</v>
       </c>
-      <c r="K40" s="46">
+      <c r="K40" s="45">
         <v>3</v>
       </c>
-      <c r="L40" s="49"/>
-      <c r="M40" s="80"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="87"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="2:15">
-      <c r="B41" s="85"/>
+    <row r="41" spans="1:15">
+      <c r="B41" s="92"/>
       <c r="C41" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="18"/>
       <c r="F41" s="21"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="39" t="s">
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="J41" s="46">
+      <c r="J41" s="45">
         <v>2</v>
       </c>
-      <c r="K41" s="46">
+      <c r="K41" s="45">
         <v>5</v>
       </c>
-      <c r="L41" s="49"/>
-      <c r="M41" s="80"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="87"/>
       <c r="N41" s="4"/>
     </row>
-    <row r="42" spans="2:15">
-      <c r="B42" s="85"/>
+    <row r="42" spans="1:15">
+      <c r="B42" s="92"/>
       <c r="C42" s="6" t="s">
         <v>60</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="18"/>
       <c r="F42" s="21"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="46">
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="45">
         <v>1</v>
       </c>
-      <c r="K42" s="46"/>
-      <c r="L42" s="49"/>
-      <c r="M42" s="80"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="87"/>
       <c r="N42" s="4"/>
     </row>
-    <row r="43" spans="2:15">
-      <c r="B43" s="85"/>
-      <c r="C43" s="3" t="s">
+    <row r="43" spans="1:15">
+      <c r="B43" s="92"/>
+      <c r="C43" s="78" t="s">
         <v>30</v>
       </c>
       <c r="D43" s="17">
@@ -2425,25 +2535,25 @@
         <f>E43*100</f>
         <v>0</v>
       </c>
-      <c r="G43" s="33" t="s">
+      <c r="G43" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H43" s="33"/>
-      <c r="I43" s="39" t="s">
+      <c r="H43" s="32"/>
+      <c r="I43" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="J43" s="46">
+      <c r="J43" s="45">
         <v>5</v>
       </c>
-      <c r="K43" s="46">
+      <c r="K43" s="45">
         <v>4</v>
       </c>
-      <c r="L43" s="49"/>
-      <c r="M43" s="80"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="87"/>
       <c r="N43" s="4"/>
     </row>
-    <row r="44" spans="2:15">
-      <c r="B44" s="84"/>
+    <row r="44" spans="1:15">
+      <c r="B44" s="91"/>
       <c r="C44" s="6" t="s">
         <v>21</v>
       </c>
@@ -2458,13 +2568,13 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="81"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="88"/>
       <c r="N44" s="4">
         <v>0.15</v>
       </c>
@@ -2473,25 +2583,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="2:15">
-      <c r="B45" s="62"/>
+    <row r="45" spans="1:15">
+      <c r="B45" s="61"/>
       <c r="C45" s="9"/>
       <c r="D45" s="8"/>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="43"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
       <c r="M45" s="16">
         <f>M11+M20+M14+M27+M33+M38</f>
         <v>1.1099999999999999</v>
       </c>
     </row>
-    <row r="46" spans="2:15">
-      <c r="B46" s="82" t="s">
+    <row r="46" spans="1:15">
+      <c r="B46" s="89" t="s">
         <v>24</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -2508,15 +2618,15 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="46">
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="45">
         <v>2</v>
       </c>
-      <c r="K46" s="46"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="79">
+      <c r="K46" s="45"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="86">
         <v>0.1</v>
       </c>
       <c r="N46" s="4">
@@ -2527,12 +2637,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="2:15">
-      <c r="B47" s="83"/>
-      <c r="C47" s="50" t="s">
+    <row r="47" spans="1:15">
+      <c r="B47" s="90"/>
+      <c r="C47" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="51">
+      <c r="D47" s="50">
         <v>0.5</v>
       </c>
       <c r="E47" s="18">
@@ -2543,13 +2653,13 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="47"/>
-      <c r="K47" s="47"/>
-      <c r="L47" s="49"/>
-      <c r="M47" s="80"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="87"/>
       <c r="N47" s="4">
         <v>0.1</v>
       </c>
@@ -2558,46 +2668,46 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="2:15">
-      <c r="B48" s="63"/>
-      <c r="C48" s="64" t="s">
+    <row r="48" spans="1:15">
+      <c r="B48" s="62"/>
+      <c r="C48" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="D48" s="51"/>
+      <c r="D48" s="50"/>
       <c r="E48" s="18"/>
       <c r="F48" s="19"/>
-      <c r="G48" s="33" t="s">
+      <c r="G48" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="H48" s="33" t="s">
+      <c r="H48" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="I48" s="41" t="s">
+      <c r="I48" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="J48" s="47">
+      <c r="J48" s="46">
         <v>5</v>
       </c>
-      <c r="K48" s="47"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="28"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="27"/>
     </row>
     <row r="49" spans="2:13">
-      <c r="B49" s="52"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="58">
+      <c r="B49" s="51"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="57">
         <f>SUM(J11:J48)</f>
         <v>91</v>
       </c>
-      <c r="K49" s="56"/>
-      <c r="L49" s="56"/>
-      <c r="M49" s="57"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="56"/>
     </row>
     <row r="50" spans="2:13">
       <c r="C50" t="s">
@@ -2612,6 +2722,82 @@
     <row r="52" spans="2:13">
       <c r="C52" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13">
+      <c r="C53" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="J53" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13">
+      <c r="B55" s="83" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13">
+      <c r="C56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13">
+      <c r="B57" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="82" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13">
+      <c r="C58" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13">
+      <c r="B59" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13">
+      <c r="B60" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13">
+      <c r="B61" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13">
+      <c r="B63" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13">
+      <c r="C64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
